--- a/src/main/java/poc/com/testdata/ExcelData.xlsx
+++ b/src/main/java/poc/com/testdata/ExcelData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0C52C8B-66CE-4C87-93E8-E9253E574610}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D3CE0B0D-9F47-4DE6-89C4-1957682FF69D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="6825" xr2:uid="{09698780-FAA3-4C16-A7DD-65660828570D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Value1</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -432,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3D801A-6E2E-435A-B46A-FBAECE518B24}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" activeCellId="1" sqref="D4 D10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +447,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -464,9 +458,6 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -478,9 +469,6 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -492,9 +480,6 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -506,8 +491,49 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
